--- a/Daily Attandance record/Upto 15 may/April_May/19_April.xlsx
+++ b/Daily Attandance record/Upto 15 may/April_May/19_April.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\servadmin\Desktop\Saudi Ic\Daily Attandance record\Upto 15 may\April_May\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06538C46-F1BD-45D8-8CE9-FB4F270BFDC7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{476FF82A-F4C0-410A-858A-E977E2A90908}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="3" sheetId="1" r:id="rId1"/>
@@ -1877,8 +1877,8 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:F280"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H225" sqref="H225"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D179" sqref="D179"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -7510,8 +7510,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA2AA26F-E78D-43BA-AEFE-7B5D8B0E49DC}">
   <dimension ref="A1:F205"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="K22" sqref="K22"/>
+    <sheetView topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="K20" sqref="K20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
